--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8125761-3048-E54E-927B-542FFFF3F9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2ABA7-B621-AF49-8BB8-9F823489308E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{EF3889EB-94CB-154C-8B27-3739AD6CBFEF}"/>
+    <workbookView xWindow="51700" yWindow="9300" windowWidth="14460" windowHeight="10540" xr2:uid="{EF3889EB-94CB-154C-8B27-3739AD6CBFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>LP detected</t>
   </si>
@@ -48,21 +48,6 @@
     <t>handcrafted</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>all pics (2)</t>
-  </si>
-  <si>
-    <t>original pics (1)</t>
-  </si>
-  <si>
-    <t>only eu 8 epochs</t>
-  </si>
-  <si>
-    <t>only eu 15 epochs</t>
-  </si>
-  <si>
     <t>Total images:</t>
   </si>
   <si>
@@ -79,6 +64,18 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>dataset1 8epochs</t>
+  </si>
+  <si>
+    <t>dataset2 8epochs</t>
+  </si>
+  <si>
+    <t>dataset2 15epochs</t>
+  </si>
+  <si>
+    <t>all data 8epochs</t>
   </si>
 </sst>
 </file>
@@ -164,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -187,6 +184,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,22 +502,22 @@
   <dimension ref="A3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>123</v>
@@ -530,23 +528,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4">
@@ -562,11 +560,11 @@
         <v>95</v>
       </c>
       <c r="F5" s="4">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
@@ -581,13 +579,13 @@
       <c r="E6" s="4">
         <v>73</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>4</v>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <f>B5/$B$3</f>
@@ -606,13 +604,13 @@
         <v>0.77235772357723576</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
+        <f>F9/B3</f>
         <v>0.46341463414634149</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <f>B5+B6</f>
@@ -632,22 +630,27 @@
       </c>
       <c r="F8" s="6">
         <f>F5</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="F9" s="10">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2ABA7-B621-AF49-8BB8-9F823489308E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BDCC9E-6620-8448-88CD-39B186AC0724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51700" yWindow="9300" windowWidth="14460" windowHeight="10540" xr2:uid="{EF3889EB-94CB-154C-8B27-3739AD6CBFEF}"/>
+    <workbookView xWindow="45460" yWindow="1760" windowWidth="14720" windowHeight="9120" xr2:uid="{EF3889EB-94CB-154C-8B27-3739AD6CBFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B8507B-77C4-234A-AFC2-25FE2A19CB5C}">
-  <dimension ref="A3:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,146 +515,146 @@
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
-        <v>123</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4">
+        <v>111</v>
+      </c>
+      <c r="D3" s="4">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4">
+        <v>95</v>
+      </c>
+      <c r="F3" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>96</v>
+        <f>B3/$B$1</f>
+        <v>0.78048780487804881</v>
       </c>
       <c r="C5" s="4">
-        <v>111</v>
+        <f t="shared" ref="C5:E5" si="0">C3/$B$1</f>
+        <v>0.90243902439024393</v>
       </c>
       <c r="D5" s="4">
-        <v>96</v>
-      </c>
-      <c r="E5" s="4">
-        <v>95</v>
-      </c>
-      <c r="F5" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4">
-        <v>67</v>
-      </c>
-      <c r="E6" s="4">
-        <v>73</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <f>B5/$B$3</f>
-        <v>0.78048780487804881</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:F7" si="0">C5/$B$3</f>
-        <v>0.90243902439024393</v>
-      </c>
-      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>0.78048780487804881</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0.77235772357723576</v>
       </c>
-      <c r="F7" s="4">
-        <f>F9/B3</f>
+      <c r="F5" s="4">
+        <f>F7/B1</f>
         <v>0.46341463414634149</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <f>B5+B6</f>
+      <c r="B6" s="6">
+        <f>B3+B4</f>
         <v>137</v>
       </c>
-      <c r="C8" s="6">
-        <f>C5+C6</f>
+      <c r="C6" s="6">
+        <f>C3+C4</f>
         <v>150</v>
       </c>
-      <c r="D8" s="6">
-        <f>D5+D6</f>
+      <c r="D6" s="6">
+        <f>D3+D4</f>
         <v>163</v>
       </c>
-      <c r="E8" s="6">
-        <f>E5+E6</f>
+      <c r="E6" s="6">
+        <f>E3+E4</f>
         <v>168</v>
       </c>
-      <c r="F8" s="6">
-        <f>F5</f>
+      <c r="F6" s="6">
+        <f>F3</f>
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="F9" s="10">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="F7" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
